--- a/biology/Médecine/Portail_Santé-UE/Portail_Santé-UE.xlsx
+++ b/biology/Médecine/Portail_Santé-UE/Portail_Santé-UE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Portail_Sant%C3%A9-UE</t>
+          <t>Portail_Santé-UE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le portail « santé » de l'Union européenne est le portail officiel de l'Union européenne en matière de santé publique.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Portail_Sant%C3%A9-UE</t>
+          <t>Portail_Santé-UE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Public visé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le portail s'adresse aux personnes qui veulent se tenir informées des questions en rapport avec leur santé et à celles qui souhaitent être régulièrement mises au courant des politiques et des décisions adoptées au niveau européen, national et international. Il constitue également une importante source d'information pour les professionnels de la santé, les services administratifs, les responsables politiques et les parties prenantes.
 Le portail est accessible à tout le monde, y compris aux personnes âgées et aux personnes souffrant de handicaps, car il respecte les règles internationalement reconnues sur l'accessibilité. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Portail_Sant%C3%A9-UE</t>
+          <t>Portail_Santé-UE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le portail émane du programme d'action communautaire dans le domaine de la santé publique (2003-2008), suivi du troisième programme santé (2014-2020), qui vise à inciter les personnes, les institutions, les associations, les organisations et les organes de santé publique à jouer un rôle plus actif en facilitant la consultation et la participation.
 Une attention particulière est accordée dans ce cadre au droit des citoyens européens d'obtenir des informations simples, claires et scientifiquement fondées sur les mesures de protection de la santé et de prévention des maladies.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Portail_Sant%C3%A9-UE</t>
+          <t>Portail_Santé-UE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Accès aux informations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'accès aux informations recherchées est possible grâce à une simple structure thématique présentant différents aspects sanitaires en rapport avec l'individu et l'environnement.
 Chaque thème renvoie aux sous-thèmes apparentés, par exemple « Mode de vie » renvoie à « Alimentation », où on peut trouver toute une série d'informations et de liens concernant les politiques et les activités conduites dans ce domaine dans l'Union européenne. Les politiques nationales concernant chaque thème se trouvent dans la section consacrée à l'État membre concerné. Une section est également réservée aux actions entreprises par les organisations non gouvernementales européennes et les organisations internationales dans le domaine de la santé.  Le cas échéant, des liens conduisent le lecteur directement à la page qui l'intéresse.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Portail_Sant%C3%A9-UE</t>
+          <t>Portail_Santé-UE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,6 +633,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
